--- a/TestData_Repository/BankCode.xlsx
+++ b/TestData_Repository/BankCode.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>BankActivationCode</t>
   </si>
@@ -172,6 +172,21 @@
   </si>
   <si>
     <t>f83eec</t>
+  </si>
+  <si>
+    <t>88fc95</t>
+  </si>
+  <si>
+    <t>fb671a</t>
+  </si>
+  <si>
+    <t>0239fd</t>
+  </si>
+  <si>
+    <t>0a9813</t>
+  </si>
+  <si>
+    <t>131a0b</t>
   </si>
 </sst>
 </file>
@@ -498,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A59"/>
+  <dimension ref="A1:A64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -802,6 +817,31 @@
         <v>50</v>
       </c>
     </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
